--- a/CUDA_Matrix_Addiction/dataSources/serial_and_parallel_time.xlsx
+++ b/CUDA_Matrix_Addiction/dataSources/serial_and_parallel_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UNICAL\MAGISTRALE AIDS\I ANNO\GPGPU\GPGPU\CUDA_Matrix_Addiction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UNICAL\MAGISTRALE AIDS\I ANNO\STATISTICA\2021-10-05 markdown and visualization\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,38 +24,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>serial_tot_time</t>
-  </si>
-  <si>
-    <t>parallel_tot_time</t>
-  </si>
-  <si>
     <t>2^27</t>
   </si>
   <si>
     <t>2^24</t>
   </si>
   <si>
-    <t>2^20</t>
-  </si>
-  <si>
-    <t>2^15</t>
-  </si>
-  <si>
-    <t>2^10</t>
+    <t>2^26</t>
+  </si>
+  <si>
+    <t>2^25</t>
+  </si>
+  <si>
+    <t>2^23</t>
+  </si>
+  <si>
+    <t>2^22</t>
+  </si>
+  <si>
+    <t>2^21</t>
+  </si>
+  <si>
+    <t>serial_exe_time</t>
+  </si>
+  <si>
+    <t>parallel_exe_time</t>
+  </si>
+  <si>
+    <t>in ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,13 +103,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -103,12 +132,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="dim"/>
-    <tableColumn id="2" name="serial_tot_time"/>
-    <tableColumn id="3" name="parallel_tot_time"/>
+    <tableColumn id="8" name="serial_exe_time" dataDxfId="1"/>
+    <tableColumn id="9" name="parallel_exe_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -377,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,49 +417,108 @@
     <col min="1" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.58154499999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1541600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>314</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.3165499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>356</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6337200000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>832</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.2370000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1.5720000000000001</v>
-      </c>
+      <c r="B7" s="1">
+        <v>1233</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18.484100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1384</v>
+      </c>
+      <c r="C8" s="1">
+        <v>36.942700000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>